--- a/skippers_carrol/PM_skipper_RFseq_mastermixcockatils.xlsx
+++ b/skippers_carrol/PM_skipper_RFseq_mastermixcockatils.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/RFseq_projects/skippers_carrol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40336CAD-C746-1544-8D26-7230FE3C3FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4669899-E32C-2144-BBF6-54BB4188DFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="27460" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="14020" windowWidth="27460" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1245,6 +1245,9 @@
         <f>B29*E1</f>
         <v>1885.65</v>
       </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
@@ -1257,6 +1260,9 @@
         <f>4*E1</f>
         <v>780</v>
       </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
@@ -1269,6 +1275,9 @@
         <f>B31*E1</f>
         <v>78</v>
       </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
@@ -1281,6 +1290,9 @@
         <f>B32*E1</f>
         <v>78</v>
       </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
@@ -1293,7 +1305,9 @@
         <f>B33*E1</f>
         <v>259.35000000000002</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="18" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
@@ -1306,6 +1320,9 @@
         <f>B34*E1</f>
         <v>39</v>
       </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
@@ -1317,6 +1334,9 @@
       <c r="C35" s="22">
         <f>B35*E1</f>
         <v>29.25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1381,6 +1401,9 @@
       <c r="C44" s="22">
         <f>E$1*B44</f>
         <v>82.875</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
